--- a/Photometry Absorption O-P.xlsx
+++ b/Photometry Absorption O-P.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD13A9-F224-4CD7-8DB6-018254AAA692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9FE65D-2EEB-4A74-9E00-F8CED3A41352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19784BED-E69C-498E-9D27-C5EB263D22FE}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Photometry Absorption O-P.xlsx
+++ b/Photometry Absorption O-P.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884592A2-AB1E-4466-9713-F43D6A8CF042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF4BDD8-5AC5-424A-A3A4-413F899726B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19784BED-E69C-498E-9D27-C5EB263D22FE}"/>
   </bookViews>
@@ -16,11 +16,11 @@
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
     <sheet name="filtereffectivedataWV1" sheetId="4" r:id="rId2"/>
     <sheet name="filtereffectivedataWV2" sheetId="5" r:id="rId3"/>
-    <sheet name="Observed (Moons)" sheetId="6" r:id="rId4"/>
-    <sheet name="Moons - Old" sheetId="3" r:id="rId5"/>
+    <sheet name="Modeled (Moons)" sheetId="8" r:id="rId4"/>
+    <sheet name="Observed (Moons)" sheetId="6" r:id="rId5"/>
+    <sheet name="Obs Moons - Old" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,57 @@
     <author>Steven Hill</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{4EF18C22-8846-445F-BD14-82994C072826}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{D083E1F3-1D1F-42D6-8120-CD7F2F424242}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steven Hill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Independent solution of column abundance
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{2D128C87-2B21-467C-9BC3-131D3A71FFDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steven Hill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Independent solution of column abundance
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{4EF18C22-8846-445F-BD14-82994C072826}">
       <text>
         <r>
           <rPr>
@@ -71,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{AE6FB231-4D83-48B0-AA6E-1F8829522E58}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{AE6FB231-4D83-48B0-AA6E-1F8829522E58}">
       <text>
         <r>
           <rPr>
@@ -208,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="114">
   <si>
     <t>Stddev</t>
   </si>
@@ -415,9 +465,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>±</t>
   </si>
   <si>
     <t>P (n=4) (mb)</t>
@@ -1050,6 +1097,30 @@
   <si>
     <t>Model 1</t>
   </si>
+  <si>
+    <t>O-M3</t>
+  </si>
+  <si>
+    <t>JOINT SOLUTION NUMBERS!</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Joint Tau (CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independent Solutions: N(NH3)/N(CH4)</t>
+  </si>
+  <si>
+    <t>Independent Solutions: N(NH3)</t>
+  </si>
+  <si>
+    <t>Joint Tau (NH3)</t>
+  </si>
+  <si>
+    <t>Independent Solutions</t>
+  </si>
 </sst>
 </file>
 
@@ -1060,7 +1131,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,13 +1209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1205,6 +1269,35 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1331,7 +1424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1373,9 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1393,35 +1484,23 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1442,23 +1521,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1466,6 +1557,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1785,42 +1879,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6789E3-055C-4FD4-96DB-F71CA9E2F53C}">
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="1.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="8" width="7" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="50" t="s">
+      <c r="C2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="50" t="s">
-        <v>69</v>
+      <c r="H2" s="44" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,119 +1929,131 @@
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="46" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="1">
-        <f>'Observed (Moons)'!F4</f>
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="1">
+        <f>'Observed (Moons)'!F3</f>
+        <v>0.91</v>
+      </c>
+      <c r="C4" s="1">
         <f>filtereffectivedataWV1!H2</f>
         <v>0.88044472617695901</v>
       </c>
-      <c r="F4" s="1">
+      <c r="D4" s="1">
         <f>filtereffectivedataWV2!H2</f>
         <v>0.87752920200100104</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:H7" si="0">$B4-C4</f>
+        <v>2.9555273823041017E-2</v>
+      </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:H7" si="0">$B4-E4</f>
-        <v>2.8555273823041016E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.247079799899899E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>3.1470797998998989E-2</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>73</v>
+      <c r="A5" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="B5" s="1">
-        <f>'Observed (Moons)'!S4</f>
-        <v>9.5181764996884979E-2</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="1">
+        <f>'Observed (Moons)'!U3</f>
+        <v>9.4060764556734483E-2</v>
+      </c>
+      <c r="C5" s="1">
         <f>filtereffectivedataWV1!R2</f>
         <v>0.12696087524944569</v>
       </c>
-      <c r="F5" s="1">
+      <c r="D5" s="1">
         <f>filtereffectivedataWV2!R2</f>
         <v>0.13004317472645083</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2900110692711204E-2</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1779110252560708E-2</v>
+        <v>-3.5982410169716345E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>-3.4861409729565848E-2</v>
+        <v>9.4060764556734483E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="42">
-        <f>'Observed (Moons)'!Q4</f>
-        <v>222.27658609081661</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="42">
+      <c r="A6" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="40">
+        <f>'Observed (Moons)'!S3</f>
+        <v>219.65873013015951</v>
+      </c>
+      <c r="C6" s="40">
         <f>filtereffectivedataWV1!P2</f>
         <v>296.48987827103662</v>
       </c>
-      <c r="F6" s="42">
+      <c r="D6" s="40">
         <f>filtereffectivedataWV2!P2</f>
         <v>303.68792723640968</v>
       </c>
-      <c r="G6" s="42">
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <f t="shared" si="0"/>
-        <v>-74.213292180220009</v>
-      </c>
-      <c r="H6" s="42">
+        <v>-76.831148140877104</v>
+      </c>
+      <c r="G6" s="40">
         <f t="shared" si="0"/>
-        <v>-81.41134114559307</v>
+        <v>-84.029197106250166</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="0"/>
+        <v>219.65873013015951</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="42">
-        <f>'Observed (Moons)'!U4</f>
-        <v>701.3938829189841</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="42">
+      <c r="A7" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="40">
+        <f>'Observed (Moons)'!P3</f>
+        <v>694.97485865308875</v>
+      </c>
+      <c r="C7" s="40">
         <f>filtereffectivedataWV1!T2</f>
         <v>935.57396495973558</v>
       </c>
-      <c r="F7" s="42">
+      <c r="D7" s="40">
         <f>filtereffectivedataWV2!T2</f>
         <v>958.28741221054611</v>
       </c>
-      <c r="G7" s="42">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" si="0"/>
-        <v>-234.18008204075147</v>
-      </c>
-      <c r="H7" s="42">
+        <v>-240.59910630664683</v>
+      </c>
+      <c r="G7" s="40">
         <f t="shared" si="0"/>
-        <v>-256.893529291562</v>
+        <v>-263.31255355745736</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" si="0"/>
+        <v>694.97485865308875</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -1953,503 +2061,573 @@
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="46" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="1">
-        <f>'Observed (Moons)'!F7</f>
-        <v>0.97366666666666657</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="45">
-        <f>'Observed (Moons)'!G7</f>
-        <v>1.6996731711975963E-3</v>
-      </c>
-      <c r="E9" s="1">
+        <f>'Observed (Moons)'!F5</f>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C9" s="1">
         <f>filtereffectivedataWV1!H4</f>
         <v>0.959648622713281</v>
       </c>
-      <c r="F9" s="1">
+      <c r="D9" s="1">
         <f>filtereffectivedataWV2!H4</f>
         <v>0.93961317715009796</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:H12" si="1">$B9-C9</f>
+        <v>1.2351377286718979E-2</v>
+      </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:H12" si="1">$B9-E9</f>
-        <v>1.4018043953385573E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2386822849902019E-2</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>3.4053489516568614E-2</v>
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
-        <v>73</v>
+      <c r="A10" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="B10" s="1">
-        <f>'Observed (Moons)'!R7</f>
-        <v>2.0458562650615908E-2</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="1">
+        <f>'Observed (Moons)'!T5</f>
+        <v>2.2275022505560502E-2</v>
+      </c>
+      <c r="C10" s="1">
         <f>filtereffectivedataWV1!Q4</f>
         <v>3.2883539858359498E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="D10" s="1">
         <f>filtereffectivedataWV2!Q4</f>
         <v>5.3795863958974247E-2</v>
       </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.0608517352798996E-2</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>-1.242497720774359E-2</v>
+        <v>-3.1520841453413745E-2</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>-3.3337301308358339E-2</v>
+        <v>2.2275022505560502E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="41">
-        <f>'Observed (Moons)'!P7</f>
-        <v>6.9014886176688792</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="41">
+      <c r="A11" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="39">
+        <f>'Observed (Moons)'!R5</f>
+        <v>7.5142529270410829</v>
+      </c>
+      <c r="C11" s="39">
         <f>filtereffectivedataWV1!O4</f>
         <v>11.092928663504953</v>
       </c>
-      <c r="F11" s="41">
+      <c r="D11" s="39">
         <f>filtereffectivedataWV2!O4</f>
         <v>18.147489104242968</v>
       </c>
-      <c r="G11" s="41">
+      <c r="E11" s="39"/>
+      <c r="F11" s="39">
         <f t="shared" si="1"/>
-        <v>-4.1914400458360737</v>
-      </c>
-      <c r="H11" s="41">
+        <v>-3.5786757364638699</v>
+      </c>
+      <c r="G11" s="39">
         <f t="shared" si="1"/>
-        <v>-11.24600048657409</v>
+        <v>-10.633236177201885</v>
+      </c>
+      <c r="H11" s="39">
+        <f t="shared" si="1"/>
+        <v>7.5142529270410829</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="47">
-        <f>'Observed (Moons)'!O17*1000000</f>
-        <v>56</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="47">
+      <c r="A12" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="42">
+        <f>'Observed (Moons)'!Q15*1000000</f>
+        <v>62</v>
+      </c>
+      <c r="C12" s="42">
         <f>filtereffectivedataWV1!N14*1000000</f>
         <v>67.5</v>
       </c>
-      <c r="F12" s="47">
+      <c r="D12" s="42">
         <f>filtereffectivedataWV2!N14*1000000</f>
         <v>108</v>
       </c>
-      <c r="G12" s="47">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42">
         <f t="shared" si="1"/>
-        <v>-11.5</v>
-      </c>
-      <c r="H12" s="47">
+        <v>-5.5</v>
+      </c>
+      <c r="G12" s="42">
         <f t="shared" si="1"/>
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="17"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="67" t="s">
+        <v>-46</v>
+      </c>
+      <c r="H12" s="42">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="50" t="s">
+      <c r="C16" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="65"/>
+      <c r="K16" s="57"/>
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="1">
-        <f>'Observed (Moons)'!F4</f>
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="1">
+      <c r="A17" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="62">
+        <f>'Observed (Moons)'!F3</f>
+        <v>0.91</v>
+      </c>
+      <c r="C17" s="62">
         <f>filtereffectivedataWV1!H2</f>
         <v>0.88044472617695901</v>
       </c>
-      <c r="F17" s="1">
+      <c r="D17" s="62">
         <f>filtereffectivedataWV2!H2</f>
         <v>0.87752920200100104</v>
       </c>
+      <c r="E17" s="62">
+        <f>'Modeled (Moons)'!H2</f>
+        <v>0.88158708501010896</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ref="F17:F18" si="2">$B17-C17</f>
+        <v>2.9555273823041017E-2</v>
+      </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G18" si="2">$B17-E17</f>
-        <v>2.8555273823041016E-2</v>
+        <f t="shared" ref="G17:H18" si="3">$B17-D17</f>
+        <v>3.247079799899899E-2</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:H18" si="3">$B17-F17</f>
-        <v>3.1470797998998989E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.8412914989891069E-2</v>
       </c>
       <c r="J17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
         <v>91</v>
       </c>
-      <c r="K17" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="1">
-        <f>'Observed (Moons)'!S4</f>
-        <v>9.5181764996884979E-2</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="1">
+      <c r="A18" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="62">
+        <f>'Observed (Moons)'!U3</f>
+        <v>9.4060764556734483E-2</v>
+      </c>
+      <c r="C18" s="62">
         <f>filtereffectivedataWV1!R2</f>
         <v>0.12696087524944569</v>
       </c>
-      <c r="F18" s="1">
+      <c r="D18" s="62">
         <f>filtereffectivedataWV2!R2</f>
         <v>0.13004317472645083</v>
       </c>
+      <c r="E18" s="62">
+        <f>'Modeled (Moons)'!I2</f>
+        <v>0.12603149018023099</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.2900110692711204E-2</v>
+      </c>
       <c r="G18" s="1">
-        <f t="shared" si="2"/>
-        <v>-3.1779110252560708E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.5982410169716345E-2</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="3"/>
-        <v>-3.4861409729565848E-2</v>
+        <v>-3.197072562349651E-2</v>
       </c>
       <c r="J18" s="8">
         <v>-13.485223550000001</v>
       </c>
-      <c r="K18" s="66">
+      <c r="K18" s="58">
         <v>13.478199330000001</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="62">
         <f>B17*$J$18+$K$18</f>
-        <v>1.2201311230499989</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="1">
+        <v>1.2066458994999998</v>
+      </c>
+      <c r="C19" s="62">
+        <f>C17*$J$18+$K$18</f>
+        <v>1.6052053740851715</v>
+      </c>
+      <c r="D19" s="62">
+        <f>D17*$J$18+$K$18</f>
+        <v>1.644521869363393</v>
+      </c>
+      <c r="E19" s="62">
         <f>E17*$J$18+$K$18</f>
-        <v>1.6052053740851715</v>
+        <v>1.5898004098458269</v>
       </c>
       <c r="F19" s="1">
-        <f>F17*$J$18+$K$18</f>
-        <v>1.644521869363393</v>
+        <f t="shared" ref="F19" si="4">$B19-C19</f>
+        <v>-0.39855947458517171</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19" si="4">$B19-E19</f>
-        <v>-0.38507425103517257</v>
+        <f t="shared" ref="G19:H19" si="5">$B19-D19</f>
+        <v>-0.43787596986339317</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ref="H19" si="5">$B19-F19</f>
-        <v>-0.42439074631339402</v>
+        <f t="shared" si="5"/>
+        <v>-0.38315451034582715</v>
       </c>
       <c r="J19">
         <v>-13.205698590000001</v>
       </c>
-      <c r="K19" s="65">
+      <c r="K19" s="57">
         <v>13.19962834</v>
       </c>
       <c r="L19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="1">
-        <f>'Observed (Moons)'!F7</f>
-        <v>0.97366666666666657</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="45">
-        <f>'Observed (Moons)'!G7</f>
-        <v>1.6996731711975963E-3</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="A20" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="62">
+        <f>'Observed (Moons)'!F5</f>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C20" s="62">
         <f>filtereffectivedataWV1!H4</f>
         <v>0.959648622713281</v>
       </c>
-      <c r="F20" s="1">
+      <c r="D20" s="62">
         <f>filtereffectivedataWV2!H4</f>
         <v>0.93961317715009796</v>
       </c>
+      <c r="E20" s="62">
+        <f>'Modeled (Moons)'!H3</f>
+        <v>0.96288907914727495</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20:F22" si="6">$B20-C20</f>
+        <v>1.2351377286718979E-2</v>
+      </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G22" si="6">$B20-E20</f>
-        <v>1.4018043953385573E-2</v>
+        <f t="shared" ref="G20:H22" si="7">$B20-D20</f>
+        <v>3.2386822849902019E-2</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:H22" si="7">$B20-F20</f>
-        <v>3.4053489516568614E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.1109208527250241E-3</v>
       </c>
       <c r="J20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" t="s">
         <v>91</v>
       </c>
-      <c r="K20" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="1">
-        <f>'Observed (Moons)'!R7</f>
-        <v>2.0458562650615908E-2</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="1">
+      <c r="A21" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="62">
+        <f>'Observed (Moons)'!T5</f>
+        <v>2.2275022505560502E-2</v>
+      </c>
+      <c r="C21" s="62">
         <f>filtereffectivedataWV1!Q4</f>
         <v>3.2883539858359498E-2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="D21" s="62">
         <f>filtereffectivedataWV2!Q4</f>
         <v>5.3795863958974247E-2</v>
       </c>
+      <c r="E21" s="62">
+        <f>'Modeled (Moons)'!I3</f>
+        <v>3.7817056427304901E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.0608517352798996E-2</v>
+      </c>
       <c r="G21" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.242497720774359E-2</v>
+        <f t="shared" si="7"/>
+        <v>-3.1520841453413745E-2</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="7"/>
-        <v>-3.3337301308358339E-2</v>
+        <v>-1.55420339217444E-2</v>
       </c>
       <c r="J21" s="8">
         <v>-12.828318729999999</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="58">
         <v>12.82685019</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="61">
+      <c r="A22" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="63">
         <f>B20*$J$21+$K$21</f>
-        <v>0.33634385322333493</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="61">
-        <f t="shared" ref="E22:F22" si="8">E20*$J$21+$K$21</f>
+        <v>0.35772438444000088</v>
+      </c>
+      <c r="C22" s="63">
+        <f t="shared" ref="C22:E22" si="8">C20*$J$21+$K$21</f>
         <v>0.51617178902851535</v>
       </c>
-      <c r="F22" s="61">
+      <c r="D22" s="63">
         <f t="shared" si="8"/>
         <v>0.7731928706105915</v>
       </c>
-      <c r="G22" s="61">
+      <c r="E22" s="63">
+        <f t="shared" si="8"/>
+        <v>0.47460218106256136</v>
+      </c>
+      <c r="F22" s="55">
         <f t="shared" si="6"/>
-        <v>-0.17982793580518042</v>
-      </c>
-      <c r="H22" s="61">
+        <v>-0.15844740458851447</v>
+      </c>
+      <c r="G22" s="55">
         <f t="shared" si="7"/>
-        <v>-0.43684901738725657</v>
+        <v>-0.41546848617059062</v>
+      </c>
+      <c r="H22" s="55">
+        <f t="shared" si="7"/>
+        <v>-0.11687779662256048</v>
       </c>
       <c r="J22">
         <v>-12.3796292</v>
       </c>
-      <c r="K22" s="65">
+      <c r="K22" s="57">
         <v>12.37847891</v>
       </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="50" t="s">
+      <c r="C25" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="D25" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="E25" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="46" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="42">
-        <f>'Observed (Moons)'!Q4</f>
-        <v>222.27658609081661</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42">
+      <c r="B26" s="64">
+        <f>'Observed (Moons)'!S3</f>
+        <v>219.65873013015951</v>
+      </c>
+      <c r="C26" s="64">
         <f>filtereffectivedataWV1!P2</f>
         <v>296.48987827103662</v>
       </c>
-      <c r="F26" s="42">
+      <c r="D26" s="64">
         <f>filtereffectivedataWV2!P2</f>
         <v>303.68792723640968</v>
       </c>
-      <c r="G26" s="42">
-        <f t="shared" ref="G26:G29" si="9">$B26-E26</f>
-        <v>-74.213292180220009</v>
-      </c>
-      <c r="H26" s="42">
-        <f t="shared" ref="H26:H29" si="10">$B26-F26</f>
-        <v>-81.41134114559307</v>
+      <c r="E26" s="64">
+        <f>'Modeled (Moons)'!P2</f>
+        <v>293.54585153565193</v>
+      </c>
+      <c r="F26" s="40">
+        <f t="shared" ref="F26:F29" si="9">$B26-C26</f>
+        <v>-76.831148140877104</v>
+      </c>
+      <c r="G26" s="40">
+        <f t="shared" ref="G26:H29" si="10">$B26-D26</f>
+        <v>-84.029197106250166</v>
+      </c>
+      <c r="H26" s="40">
+        <f t="shared" si="10"/>
+        <v>-73.887121405492422</v>
+      </c>
+      <c r="J26" s="60" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="42">
-        <f>'Observed (Moons)'!U4</f>
-        <v>701.3938829189841</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="42">
+      <c r="A27" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="64">
+        <f>'Observed (Moons)'!P3</f>
+        <v>694.97485865308875</v>
+      </c>
+      <c r="C27" s="64">
         <f>filtereffectivedataWV1!T2</f>
         <v>935.57396495973558</v>
       </c>
-      <c r="F27" s="42">
+      <c r="D27" s="64">
         <f>filtereffectivedataWV2!T2</f>
         <v>958.28741221054611</v>
       </c>
-      <c r="G27" s="42">
+      <c r="E27" s="64">
+        <f>'Modeled (Moons)'!T2</f>
+        <v>926.28408706632092</v>
+      </c>
+      <c r="F27" s="40">
         <f t="shared" si="9"/>
-        <v>-234.18008204075147</v>
-      </c>
-      <c r="H27" s="42">
+        <v>-240.59910630664683</v>
+      </c>
+      <c r="G27" s="40">
         <f t="shared" si="10"/>
-        <v>-256.893529291562</v>
+        <v>-263.31255355745736</v>
+      </c>
+      <c r="H27" s="40">
+        <f t="shared" si="10"/>
+        <v>-231.30922841323218</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="41">
-        <f>'Observed (Moons)'!P7</f>
-        <v>6.9014886176688792</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="41">
+      <c r="A28" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="50">
+        <f>'Observed (Moons)'!R5</f>
+        <v>7.5142529270410829</v>
+      </c>
+      <c r="C28" s="50">
         <f>filtereffectivedataWV1!O4</f>
         <v>11.092928663504953</v>
       </c>
-      <c r="F28" s="41">
+      <c r="D28" s="50">
         <f>filtereffectivedataWV2!O4</f>
         <v>18.147489104242968</v>
       </c>
-      <c r="G28" s="41">
+      <c r="E28" s="50">
+        <f>'Modeled (Moons)'!O3</f>
+        <v>9.9885501023175216</v>
+      </c>
+      <c r="F28" s="39">
         <f t="shared" si="9"/>
-        <v>-4.1914400458360737</v>
-      </c>
-      <c r="H28" s="41">
+        <v>-3.5786757364638699</v>
+      </c>
+      <c r="G28" s="39">
         <f t="shared" si="10"/>
-        <v>-11.24600048657409</v>
+        <v>-10.633236177201885</v>
+      </c>
+      <c r="H28" s="39">
+        <f t="shared" si="10"/>
+        <v>-2.4742971752764387</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="47">
-        <f>'Observed (Moons)'!O17*1000000</f>
-        <v>56</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="47">
+      <c r="A29" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="65">
+        <f>'Observed (Moons)'!Q15*1000000</f>
+        <v>62</v>
+      </c>
+      <c r="C29" s="65">
         <f>filtereffectivedataWV1!N14*1000000</f>
         <v>67.5</v>
       </c>
-      <c r="F29" s="47">
+      <c r="D29" s="65">
         <f>filtereffectivedataWV2!N14*1000000</f>
         <v>108</v>
       </c>
-      <c r="G29" s="47">
+      <c r="E29" s="65">
+        <f>'Modeled (Moons)'!N14*1000000</f>
+        <v>61.500000000000007</v>
+      </c>
+      <c r="F29" s="42">
         <f t="shared" si="9"/>
-        <v>-11.5</v>
-      </c>
-      <c r="H29" s="47">
+        <v>-5.5</v>
+      </c>
+      <c r="G29" s="42">
         <f t="shared" si="10"/>
-        <v>-52</v>
+        <v>-46</v>
+      </c>
+      <c r="H29" s="42">
+        <f t="shared" si="10"/>
+        <v>0.49999999999999289</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34">
         <f>-LN(0.858)</f>
@@ -2458,7 +2636,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35">
         <f>-LN(0.928)</f>
@@ -2491,7 +2669,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39">
         <f>B36*(B35/B34)*(B37/B38)*1000000</f>
@@ -2499,12 +2677,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B16:D16"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2535,23 +2710,23 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="E1" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="F1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>97</v>
+      <c r="G1" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="H1" t="s">
         <v>33</v>
@@ -2587,33 +2762,33 @@
         <v>52</v>
       </c>
       <c r="S1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>620</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="49">
         <v>3.3214719692628299E-2</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="50">
         <v>618.56807271012997</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="49">
         <v>0.42821318552191601</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="50">
         <v>618.56807271012997</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="9">
         <v>0.88044472617695901</v>
@@ -2624,10 +2799,10 @@
       <c r="J2" s="1">
         <v>3833.4849635732699</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="56">
         <v>297.34751945062402</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="30">
         <f t="shared" ref="L2:L10" si="0">J2/N$14</f>
         <v>56792369.830715105</v>
       </c>
@@ -2662,23 +2837,23 @@
       <c r="A3">
         <v>632</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="49">
         <v>0.10388872078368</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="50">
         <v>630.87519017272996</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="49">
         <v>1.8731439891883001E-2</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="50">
         <v>630.87519017272996</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="1">
         <v>0.99281966131418398</v>
@@ -2692,7 +2867,7 @@
       <c r="K3" s="1">
         <v>384.71369137382902</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="30">
         <f t="shared" si="0"/>
         <v>1027629.667903246</v>
       </c>
@@ -2710,23 +2885,23 @@
       <c r="A4">
         <v>647</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="49">
         <v>2.9643695417013101</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="50">
         <v>646.63311578422599</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="49">
         <v>2.7918658202382499E-2</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="50">
         <v>646.63311578422599</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="9">
         <v>0.959648622713281</v>
@@ -2734,13 +2909,13 @@
       <c r="I4" s="1">
         <v>4.1188079528194303E-2</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="56">
         <v>13.8943808957622</v>
       </c>
       <c r="K4" s="1">
         <v>1475.2886485310901</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="31">
         <f>J4/N$14</f>
         <v>205842.67993721779</v>
       </c>
@@ -2767,23 +2942,23 @@
       <c r="A5">
         <v>656</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="49">
         <v>0.45815272273296798</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="50">
         <v>657.28431530743296</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="49">
         <v>7.9544943497809301E-2</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="50">
         <v>657.28431530743296</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1">
         <v>0.99548066889085396</v>
@@ -2797,7 +2972,7 @@
       <c r="K5" s="1">
         <v>56.943583835886002</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>146468.19504231378</v>
       </c>
@@ -2824,23 +2999,23 @@
       <c r="A6">
         <v>658</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="49">
         <v>0.25239495249029098</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="50">
         <v>657.38073894421098</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="49">
         <v>8.1309871930781999E-2</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="50">
         <v>657.38073894421098</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="1">
         <v>1.0010282871801399</v>
@@ -2854,7 +3029,7 @@
       <c r="K6" s="1">
         <v>-12.6400255052371</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="30">
         <f t="shared" si="0"/>
         <v>-60326.313824285178</v>
       </c>
@@ -2872,23 +3047,23 @@
       <c r="A7">
         <v>672</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="51">
         <v>3.0582468583102901E-2</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="52">
         <v>672.98148846381196</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="51">
         <v>6.3640925559714706E-2</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="52">
         <v>672.98148846381196</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="1">
         <v>0.98908766403637904</v>
@@ -2902,7 +3077,7 @@
       <c r="K7" s="1">
         <v>172.409689598753</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="30">
         <f t="shared" si="0"/>
         <v>5315227.3568287259</v>
       </c>
@@ -2920,23 +3095,23 @@
       <c r="A8">
         <v>730</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="49">
         <v>1.75022992484933</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="50">
         <v>729.376998207974</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="49">
         <v>2.5024397718246401</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="50">
         <v>729.376998207974</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="1">
         <v>0.56598797182724003</v>
@@ -2950,7 +3125,7 @@
       <c r="K8" s="1">
         <v>227.45100945161499</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="30">
         <f t="shared" si="0"/>
         <v>4817842.7904625479</v>
       </c>
@@ -2977,23 +3152,23 @@
       <c r="A9">
         <v>889</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="49">
         <v>15.306579647424901</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="50">
         <v>889.91178756071997</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="49">
         <v>27.131714837508401</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="50">
         <v>889.91178756071997</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="1">
         <v>9.0490058740224394E-2</v>
@@ -3007,7 +3182,7 @@
       <c r="K9" s="1">
         <v>88.550071267996103</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="30">
         <f t="shared" si="0"/>
         <v>2325328.0497420146</v>
       </c>
@@ -3025,23 +3200,23 @@
       <c r="A10">
         <v>940</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="49">
         <v>7.2667015255243497</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="50">
         <v>940.555792006621</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="49">
         <v>4.6336258468340601E-2</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="50">
         <v>940.555792006621</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1">
         <v>0.971665926935116</v>
@@ -3055,7 +3230,7 @@
       <c r="K10" s="1">
         <v>620.31832344318502</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="30">
         <f t="shared" si="0"/>
         <v>58599.576522927549</v>
       </c>
@@ -3173,7 +3348,7 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="29">
         <v>1.81E-3</v>
       </c>
       <c r="G23" t="s">
@@ -3260,10 +3435,10 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,8 +3473,8 @@
       <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="54" t="s">
-        <v>97</v>
+      <c r="G1" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="H1" t="s">
         <v>33</v>
@@ -3335,10 +3510,10 @@
         <v>52</v>
       </c>
       <c r="S1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3361,7 +3536,7 @@
         <v>618.56807271012997</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="9">
         <v>0.87752920200100104</v>
@@ -3372,10 +3547,10 @@
       <c r="J2" s="1">
         <v>3933.3478280478398</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="56">
         <v>305.09346741152802</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="30">
         <f t="shared" ref="L2:L10" si="0">J2/N$14</f>
         <v>36419887.296739258</v>
       </c>
@@ -3426,7 +3601,7 @@
         <v>630.87519017272996</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="1">
         <v>0.99264752022876701</v>
@@ -3440,7 +3615,7 @@
       <c r="K3" s="1">
         <v>393.97091292879202</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="30">
         <f t="shared" si="0"/>
         <v>657723.20997141208</v>
       </c>
@@ -3474,7 +3649,7 @@
         <v>646.63311578422599</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="9">
         <v>0.93961317715009796</v>
@@ -3482,13 +3657,13 @@
       <c r="I4" s="1">
         <v>6.2287002083181699E-2</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="56">
         <v>21.011888432585199</v>
       </c>
       <c r="K4" s="1">
         <v>2231.0170364085102</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="31">
         <f>J4/N$14</f>
         <v>194554.52252393702</v>
       </c>
@@ -3531,7 +3706,7 @@
         <v>657.28431530743296</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1">
         <v>0.96346228359668695</v>
@@ -3545,7 +3720,7 @@
       <c r="K5" s="1">
         <v>467.93592980758802</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>752254.75832243427</v>
       </c>
@@ -3588,7 +3763,7 @@
         <v>657.38073894421098</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="1">
         <v>0.96734603162176203</v>
@@ -3602,7 +3777,7 @@
       <c r="K6" s="1">
         <v>408.30229339518201</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="30">
         <f t="shared" si="0"/>
         <v>1217925.365158852</v>
       </c>
@@ -3636,7 +3811,7 @@
         <v>672.98148846381196</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="1">
         <v>0.97679037707128202</v>
@@ -3650,7 +3825,7 @@
       <c r="K7" s="1">
         <v>368.99538325004897</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="30">
         <f t="shared" si="0"/>
         <v>7109861.2560532782</v>
       </c>
@@ -3684,7 +3859,7 @@
         <v>729.376998207974</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="1">
         <v>0.54980772609687001</v>
@@ -3698,7 +3873,7 @@
       <c r="K8" s="1">
         <v>239.04137774899701</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="30">
         <f t="shared" si="0"/>
         <v>3164592.9523101114</v>
       </c>
@@ -3741,7 +3916,7 @@
         <v>889.91178756071997</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="1">
         <v>8.9475194194094596E-2</v>
@@ -3755,7 +3930,7 @@
       <c r="K9" s="1">
         <v>88.965768157888803</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="30">
         <f t="shared" si="0"/>
         <v>1460152.6656192592</v>
       </c>
@@ -3789,7 +3964,7 @@
         <v>940.555792006621</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1">
         <v>0.97054774427896695</v>
@@ -3803,7 +3978,7 @@
       <c r="K10" s="1">
         <v>645.16823376960701</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="30">
         <f t="shared" si="0"/>
         <v>38091.919761345373</v>
       </c>
@@ -3915,7 +4090,7 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="29">
         <v>1.81E-3</v>
       </c>
     </row>
@@ -3979,29 +4154,446 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D68134-76B1-4DF2-B2D5-A6AD487B0E43}">
+  <dimension ref="A1:T28"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>620</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>3.3214719692628299E-2</v>
+      </c>
+      <c r="D2">
+        <v>618.56807271012997</v>
+      </c>
+      <c r="E2">
+        <v>0.42821318552191601</v>
+      </c>
+      <c r="F2">
+        <v>618.56807271012997</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.88158708501010896</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.12603149018023099</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3794.44690024595</v>
+      </c>
+      <c r="K2" s="56">
+        <v>294.31949888843599</v>
+      </c>
+      <c r="L2" s="30">
+        <f>J2/N$14</f>
+        <v>61698323.581234954</v>
+      </c>
+      <c r="M2" s="23">
+        <f>K2/N$15</f>
+        <v>162607.45794941214</v>
+      </c>
+      <c r="N2" s="23">
+        <f>I2/(N$14*C2+N$15*E2)*1000</f>
+        <v>162180.02847273587</v>
+      </c>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24">
+        <f>N2*N$15</f>
+        <v>293.54585153565193</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9">
+        <f>N2*E2*N15/1000</f>
+        <v>0.12570020418282493</v>
+      </c>
+      <c r="S2" s="2">
+        <f>I2*2.2*$B$25/(224*$B$23*$B$22)/4</f>
+        <v>889.99298827335542</v>
+      </c>
+      <c r="T2" s="2">
+        <f>(P2)*$B$28/4</f>
+        <v>926.28408706632092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>647</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>2.9643695417013101</v>
+      </c>
+      <c r="D3">
+        <v>646.63311578422599</v>
+      </c>
+      <c r="E3">
+        <v>2.7918658202382499E-2</v>
+      </c>
+      <c r="F3">
+        <v>646.63311578422599</v>
+      </c>
+      <c r="G3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.96288907914727495</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.7817056427304901E-2</v>
+      </c>
+      <c r="J3" s="56">
+        <v>12.7572004418858</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1354.5441959699001</v>
+      </c>
+      <c r="L3" s="30">
+        <f>J3/N$14</f>
+        <v>207434.15352659835</v>
+      </c>
+      <c r="M3" s="25">
+        <f>K3/N$15</f>
+        <v>748366.95909939229</v>
+      </c>
+      <c r="N3" s="23">
+        <f>I3/(N$14*C3+N$15*E3)*1000</f>
+        <v>162415.44881817108</v>
+      </c>
+      <c r="O3" s="24">
+        <f>N3*N$14</f>
+        <v>9.9885501023175216</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L4" s="31"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="9">
+        <f>N4*C4*N14/1000</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L5" s="30"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L6" s="30"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L7" s="30"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L8" s="30"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L9" s="30"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L10" s="30"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L12" s="27"/>
+      <c r="M12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f>J3/K2</f>
+        <v>4.3344734175160826E-2</v>
+      </c>
+      <c r="N14" s="23">
+        <v>6.1500000000000004E-5</v>
+      </c>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K15" s="2">
+        <f>K14*N15</f>
+        <v>7.8453968857041093E-5</v>
+      </c>
+      <c r="N15" s="23">
+        <v>1.81E-3</v>
+      </c>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="1">
+        <f>O3/P2</f>
+        <v>3.4027222834400662E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="2">
+        <f>$N$15*P17</f>
+        <v>6.1589273330265196E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2.964</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="29">
+        <v>1.81E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.6899999999999998E+24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>2228</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.8499999999999998E-24</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1010000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B24*B25*B26/(B23*B27)</f>
+        <v>12.622002078660904</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8FD118-7DAB-44F9-A6C2-13C8E628D16A}">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="13" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C1" s="69" t="s">
         <v>55</v>
       </c>
@@ -4010,93 +4602,103 @@
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:37" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="I1" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+    </row>
+    <row r="2" spans="1:36" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="37">
         <v>2020</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="37">
         <v>2021</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="37">
         <v>2022</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="36" t="s">
         <v>47</v>
       </c>
       <c r="O2" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="R2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="S2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="T2" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>620</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="E3">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F3" s="9">
         <f>AVERAGE(C3:E3)</f>
-        <v>0.93300000000000005</v>
+        <v>0.91</v>
       </c>
       <c r="G3" s="1">
         <f>_xlfn.STDEV.P(C3:E3)</f>
@@ -4104,7 +4706,7 @@
       </c>
       <c r="I3" s="1">
         <f>-LN(F3)</f>
-        <v>6.9350078134793172E-2</v>
+        <v>9.431067947124129E-2</v>
       </c>
       <c r="J3" s="1">
         <f>ABS((-LN(F3+H3)+LN(F3-H3))/2)</f>
@@ -4112,629 +4714,460 @@
       </c>
       <c r="K3" s="1">
         <f>1000*I3/filtereffectivedataWV1!$C$4</f>
-        <v>23.394545504266585</v>
+        <v>31.814751212534226</v>
       </c>
       <c r="L3" s="9">
         <f>1000*I3/filtereffectivedataWV1!$E$2</f>
-        <v>161.95222491868793</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23">
-        <f>L3/O$20</f>
-        <v>89476.36735839113</v>
-      </c>
-      <c r="O3" s="23">
-        <f>I3/(O$16*filtereffectivedataWV1!$C$2+O$20*filtereffectivedataWV1!$E$2)*1000</f>
-        <v>89110.911603519067</v>
-      </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="24">
-        <f>O3*O$20</f>
-        <v>161.29075000236952</v>
-      </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="9">
-        <f>O3*filtereffectivedataWV2!$E$2*O$20/1000</f>
-        <v>6.9066825853733638E-2</v>
-      </c>
-      <c r="T3" s="2">
-        <f>I3*2.2*$B$25/(224*$B$23*$B$22)/4</f>
-        <v>489.7274735695911</v>
-      </c>
-      <c r="U3" s="2">
-        <f>(Q3)*$B$28/4</f>
-        <v>508.95304544967104</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+        <v>220.24235278111129</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35">
+        <f>L3/$B$21</f>
+        <v>121680.85789011673</v>
+      </c>
+      <c r="O3" s="2">
+        <f>I3*2.2*$B$23/(224*$B$21*$B$20)/4</f>
+        <v>665.99104183143754</v>
+      </c>
+      <c r="P3" s="2">
+        <f>(L3)*$B$26/4</f>
+        <v>694.97485865308875</v>
+      </c>
+      <c r="Q3" s="23">
+        <f>I3/(Q$15*filtereffectivedataWV1!$C$2+$B$21*filtereffectivedataWV1!$E$2)*1000</f>
+        <v>121358.41443655222</v>
+      </c>
+      <c r="R3" s="33"/>
+      <c r="S3" s="24">
+        <f>Q3*$B$21</f>
+        <v>219.65873013015951</v>
+      </c>
+      <c r="T3" s="32"/>
+      <c r="U3" s="9">
+        <f>Q3*filtereffectivedataWV2!$E$2*$B$21/1000</f>
+        <v>9.4060764556734483E-2</v>
+      </c>
       <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>620</v>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>632</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="F4" s="8">
-        <f>AVERAGE(C4:E4)</f>
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="G4" s="1">
-        <f>_xlfn.STDEV.P(C4:E4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>-LN(F4)</f>
-        <v>9.5410184804658182E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <f>ABS((-LN(F4+H4)+LN(F4-H4))/2)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <f>1000*I4/filtereffectivedataWV1!$C$4</f>
-        <v>32.185658185483987</v>
-      </c>
-      <c r="L4" s="9">
-        <f>1000*I4/filtereffectivedataWV1!$E$2</f>
-        <v>222.81001153285385</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23">
-        <f>L4/O$20</f>
-        <v>123099.45388555461</v>
-      </c>
-      <c r="O4" s="23">
-        <f>I4/(O$17*filtereffectivedataWV1!$C$2+O$20*filtereffectivedataWV1!$E$2)*1000</f>
-        <v>122804.74369658376</v>
-      </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="24">
-        <f>O4*O$20</f>
-        <v>222.27658609081661</v>
-      </c>
-      <c r="R4" s="34"/>
-      <c r="S4" s="9">
-        <f>O4*filtereffectivedataWV2!$E$2*O$20/1000</f>
-        <v>9.5181764996884979E-2</v>
-      </c>
-      <c r="T4" s="2">
-        <f>I4*2.2*$B$25/(224*$B$23*$B$22)/4</f>
-        <v>673.75538736056535</v>
-      </c>
-      <c r="U4" s="2">
-        <f>(Q4)*$B$28/4</f>
-        <v>701.3938829189841</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>632</v>
+        <v>38</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>647</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="1"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C5" s="61">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F5" s="9">
+        <f>AVERAGE(D5:E5)</f>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <f>_xlfn.STDEV.P(C5:E5)</f>
+        <v>2.0548046676563273E-3</v>
+      </c>
+      <c r="H5" s="19">
+        <f>G5/SQRT(COUNT(C5:E5))</f>
+        <v>1.1863420280034801E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <f>-LN(F5)</f>
+        <v>2.8399474521698002E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f>ABS((-LN(F5+H5)+LN(F5-H5))/2)</f>
+        <v>1.2205170957678077E-3</v>
+      </c>
+      <c r="K5" s="9">
+        <f>1000*I5/filtereffectivedataWV1!$C$4</f>
+        <v>9.5802746999616595</v>
+      </c>
+      <c r="L5" s="1">
+        <f>1000*I5/filtereffectivedataWV1!$E$2</f>
+        <v>66.320878202487094</v>
+      </c>
+      <c r="M5" s="2">
+        <f>K5/Q$14</f>
+        <v>100107.363635963</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="23">
+        <f>I5/(Q$15*filtereffectivedataWV1!$C$4+$B$21*filtereffectivedataWV1!$E$4)*1000</f>
+        <v>121197.62785550133</v>
+      </c>
+      <c r="R5" s="24">
+        <f>Q5*Q$15</f>
+        <v>7.5142529270410829</v>
+      </c>
+      <c r="S5" s="34"/>
+      <c r="T5" s="32">
+        <f>Q5*filtereffectivedataWV2!$C$4*Q$15/1000</f>
+        <v>2.2275022505560502E-2</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AJ5" s="2"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="D6">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="E6">
-        <v>0.97</v>
-      </c>
-      <c r="F6" s="9">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F6">
         <f>AVERAGE(C6:E6)</f>
-        <v>0.97066666666666668</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="G6" s="1">
         <f>_xlfn.STDEV.P(C6:E6)</f>
-        <v>3.2998316455372248E-3</v>
-      </c>
-      <c r="H6" s="19">
-        <f>G6/SQRT(COUNT(C6:E6))</f>
-        <v>1.9051586888313627E-3</v>
-      </c>
-      <c r="I6" s="1">
-        <f>-LN(F6)</f>
-        <v>2.9772158333670144E-2</v>
-      </c>
-      <c r="J6" s="1">
-        <f>ABS((-LN(F6+H6)+LN(F6-H6))/2)</f>
-        <v>1.9627346860533156E-3</v>
-      </c>
-      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="1">
         <f>1000*I6/filtereffectivedataWV1!$C$4</f>
-        <v>10.043335662052215</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <f>1000*I6/filtereffectivedataWV1!$E$2</f>
-        <v>69.526486666642825</v>
-      </c>
-      <c r="M6" s="25">
-        <f>K6/O$16</f>
-        <v>104946.0361760942</v>
-      </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="23">
-        <f>I6/(O$16*filtereffectivedataWV1!$C$4+O$20*filtereffectivedataWV1!$E$4)*1000</f>
-        <v>89078.740814716017</v>
-      </c>
-      <c r="P6" s="24">
-        <f>O6*O$16</f>
-        <v>8.5248354959683219</v>
-      </c>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="34">
-        <f>O6*filtereffectivedataWV2!$C$4*O$16/1000</f>
-        <v>2.527076269226268E-2</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+        <f>1000*J6/filtereffectivedataWV1!$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="19"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>647</v>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>658</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="E7">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="F7" s="9">
-        <f>AVERAGE(C7:E7)</f>
-        <v>0.97366666666666657</v>
-      </c>
-      <c r="G7" s="1">
-        <f>_xlfn.STDEV.P(C7:E7)</f>
-        <v>1.6996731711975963E-3</v>
-      </c>
-      <c r="H7" s="19">
-        <f>G7/SQRT(COUNT(C7:E7))</f>
-        <v>9.8130676292531725E-4</v>
-      </c>
-      <c r="I7" s="1">
-        <f>-LN(F7)</f>
-        <v>2.6686265262505879E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <f>ABS((-LN(F7+H7)+LN(F7-H7))/2)</f>
-        <v>1.0078470679711609E-3</v>
-      </c>
-      <c r="K7" s="9">
-        <f>1000*I7/filtereffectivedataWV1!$C$4</f>
-        <v>9.0023409318900587</v>
-      </c>
-      <c r="L7" s="1">
-        <f>1000*I7/filtereffectivedataWV1!$E$2</f>
-        <v>62.320045633298392</v>
-      </c>
-      <c r="M7" s="25">
-        <f>K7/O$16</f>
-        <v>94068.348295611897</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="23">
-        <f>I7/(O$17*filtereffectivedataWV1!$C$4+O$20*filtereffectivedataWV1!$E$4)*1000</f>
-        <v>123240.86817265856</v>
-      </c>
-      <c r="P7" s="24">
-        <f>O7*O$17</f>
-        <v>6.9014886176688792</v>
-      </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="34">
-        <f>O7*filtereffectivedataWV2!$C$4*O$17/1000</f>
-        <v>2.0458562650615908E-2</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AH7" s="2"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="19"/>
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="F8">
-        <f>AVERAGE(C8:E8)</f>
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <f>_xlfn.STDEV.P(C8:E8)</f>
+        <v>42</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="19"/>
+      <c r="X8" s="20"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>730</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="19"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>889</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>0.104</v>
+      </c>
+      <c r="D10">
+        <v>0.104</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(C10:E10)</f>
+        <v>0.104</v>
+      </c>
+      <c r="G10" s="1">
+        <f>_xlfn.STDEV.P(C10:E10)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="1">
-        <f>1000*I8/filtereffectivedataWV1!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>1000*J8/filtereffectivedataWV1!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="18"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>658</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="19"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="18"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>672</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
-      <c r="R10" s="19"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>730</v>
+        <v>940</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="27"/>
+        <v>45</v>
+      </c>
       <c r="Q11" s="27"/>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>889</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
-        <v>0.104</v>
-      </c>
-      <c r="D12">
-        <v>0.104</v>
-      </c>
-      <c r="F12">
-        <f>AVERAGE(C12:E12)</f>
-        <v>0.104</v>
-      </c>
-      <c r="G12" s="1">
-        <f>_xlfn.STDEV.P(C12:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>940</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q13" s="27"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K16" s="28" t="s">
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K14" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="32">
+        <f>K5/L3</f>
+        <v>4.3498784765903097E-2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>9.5699999999999995E-5</v>
+      </c>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K15" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="2">
+        <f>L14*$B$21</f>
+        <v>7.8732800426284597E-5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="66">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S17" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="34">
-        <f>K6/L3</f>
-        <v>6.2014187622891362E-2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="23">
-        <v>9.5699999999999995E-5</v>
-      </c>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K17" s="28" t="s">
+      <c r="T17" s="32">
+        <f>Q14/$B$21</f>
+        <v>5.2872928176795578E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>1.81E-3</v>
+      </c>
+      <c r="S18" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="2">
-        <f>L16*O20</f>
-        <v>1.1224567959743336E-4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="23">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K18" s="28" t="s">
+    </row>
+    <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2.964</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="34">
-        <f>K7/L4</f>
-        <v>4.0403664404292904E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K19" s="28" t="s">
+      <c r="T19" s="2">
+        <f>Q15/$B$21</f>
+        <v>3.4254143646408844E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="2">
-        <f>L18*O20</f>
-        <v>7.3130632571770152E-5</v>
-      </c>
-      <c r="Q19" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="34">
-        <f>O16/O20</f>
-        <v>5.2872928176795578E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N20" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="23">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
         <v>1.81E-3</v>
       </c>
-      <c r="Q20" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>2.964</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="R21" s="2">
-        <f>O17/O20</f>
-        <v>3.0939226519337018E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>0.42799999999999999</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.6899999999999998E+24</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="31">
-        <v>1.81E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>2228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="L23">
+        <f>10000000/620</f>
+        <v>16129.032258064517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="30">
-        <v>2.6899999999999998E+24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.8499999999999998E-24</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>2228</v>
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1010000</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="L25">
-        <f>10000000/620</f>
-        <v>16129.032258064517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <f>SUM(L23:L24)</f>
+        <v>16252.032258064517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="30">
-        <v>3.8499999999999998E-24</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B22*B23*B24/(B21*B25)</f>
+        <v>12.622002078660904</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="L26">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="29">
-        <v>1010000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
+        <f>10000000/L25</f>
+        <v>615.30766375619521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="L27">
-        <f>SUM(L25:L26)</f>
-        <v>16252.032258064517</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="30">
-        <f>B24*B25*B26/(B23*B27)</f>
-        <v>12.622002078660904</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="L28">
-        <f>10000000/L27</f>
-        <v>615.30766375619521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="L29">
-        <f>L28-620</f>
+        <f>L26-620</f>
         <v>-4.6923362438047889</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4742,7 +5175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12D6059-FE2B-45FF-8400-1670E3BAB95F}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
